--- a/back/scriptImport/bts_sio.xlsx
+++ b/back/scriptImport/bts_sio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travail\EstyaTicketing\back\scriptImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5057F8-CAD7-4407-9D29-799A2CF05A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A3B16-B115-414D-90C7-41A64AF78B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1127ED61-60BA-4CBC-8C4F-D56651D02534}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="156">
   <si>
     <t xml:space="preserve">Confirmation choix d'option BTS SIO 1 </t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>s.moussounda@estya.com</t>
   </si>
 </sst>
 </file>
@@ -689,6 +692,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,11 +711,6 @@
     </xf>
     <xf numFmtId="17" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B69C48-58DD-434E-9352-CCF2B55B9188}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1122,7 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1130,18 +1133,18 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1152,7 +1155,7 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1163,7 +1166,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1174,7 +1177,7 @@
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1185,7 +1188,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
@@ -1199,7 +1202,7 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1210,7 +1213,7 @@
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1221,7 +1224,7 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1232,7 +1235,7 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1241,7 +1244,7 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1252,7 +1255,7 @@
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1261,7 +1264,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1277,8 +1280,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
+      <c r="A17" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -1514,7 +1517,7 @@
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1563,7 +1566,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -1577,6 +1580,7 @@
   <hyperlinks>
     <hyperlink ref="A43" r:id="rId1" xr:uid="{9B47956F-E1A1-46C7-8B7B-F24A8F7B0C22}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{BDAEAF6F-BD42-4C54-93B9-9AD262DF8FFC}"/>
+    <hyperlink ref="A17" r:id="rId3" xr:uid="{BF37FFC1-7D7B-4DB4-A09D-AF94A358E4D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1599,32 +1603,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1635,9 +1639,9 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
